--- a/getTorrnet/hangzou.xlsx
+++ b/getTorrnet/hangzou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16775" windowHeight="8412" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="11055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="gongzhi" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,9 @@
     <t>收益</t>
   </si>
   <si>
+    <t>收益率</t>
+  </si>
+  <si>
     <t>泰康汇选悦泰混合1号</t>
   </si>
   <si>
@@ -57,10 +60,7 @@
     <t>赎回总计</t>
   </si>
   <si>
-    <t xml:space="preserve">收益 </t>
-  </si>
-  <si>
-    <t>当前价值</t>
+    <t>赎回中</t>
   </si>
   <si>
     <t>建信纯债C</t>
@@ -81,7 +81,7 @@
     <t>天宏中证计算机C</t>
   </si>
   <si>
-    <t>买入中</t>
+    <t>当前价值</t>
   </si>
   <si>
     <t>合计收益</t>
@@ -92,14 +92,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,31 +109,43 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,9 +175,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,6 +194,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,44 +214,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,14 +236,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,7 +280,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,37 +394,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,13 +430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,19 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,104 +464,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -489,16 +490,75 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,21 +577,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +616,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -593,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,184 +680,250 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1115,323 +1256,323 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13" style="17"/>
-    <col min="3" max="3" width="18.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="16.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="13" style="39"/>
+    <col min="3" max="3" width="18.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.775" customWidth="1"/>
     <col min="6" max="6" width="10.6666666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17">
+      <c r="A1" s="39">
         <v>120</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="38">
         <v>42436</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
+      <c r="A2" s="39">
         <v>110.48</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="38">
         <v>42444</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="39">
         <v>2006.14</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="38">
         <v>42465</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="39">
         <v>2320</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="38">
         <v>42475</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="39">
         <v>3504.14</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="38">
         <v>42495</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="39">
         <v>1625.03</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="38">
         <v>42506</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17">
+      <c r="A7" s="39">
         <v>5054.03</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="38">
         <v>42527</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="17">
+      <c r="A8" s="39">
         <v>1718.25</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="38">
         <v>42536</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="17">
+      <c r="A9" s="39">
         <v>4361.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="38">
         <v>42556</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="17">
+      <c r="A10" s="39">
         <v>2014.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="38">
         <v>42566</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="17">
+      <c r="A11" s="39">
         <v>4391.12</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="38">
         <v>42587</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="17">
+      <c r="A12" s="39">
         <v>2019.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="38">
         <v>42597</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="17">
+      <c r="A13" s="39">
         <v>4429.92</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="38">
         <v>42621</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="17">
+      <c r="A14" s="39">
         <v>2014.5</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="38">
         <v>42631</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="17">
+      <c r="A15" s="39">
         <v>4265.02</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="38">
         <v>42651</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="17">
+      <c r="A16" s="39">
         <v>2014.5</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="38">
         <v>42660</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="17">
+      <c r="A17" s="39">
         <v>4866.42</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="38">
         <v>42681</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="17">
+      <c r="A18" s="39">
         <v>2014.5</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="38">
         <v>42681</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="17">
+      <c r="A19" s="39">
         <v>5215.62</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="38">
         <v>42709</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="17">
+      <c r="A20" s="39">
         <v>2014.5</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="38">
         <v>42719</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="17">
+      <c r="A21" s="39">
         <v>5205.92</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="38">
         <v>42740</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="17">
+      <c r="A22" s="39">
         <v>2016.6</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="38">
         <v>42751</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="17">
+      <c r="A23" s="39">
         <v>1960</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="38">
         <v>42752</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="17">
+      <c r="A24" s="39">
         <v>5147.72</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="38">
         <v>42772</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="17">
+      <c r="A25" s="39">
         <v>2019.6</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="38">
         <v>42781</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="17">
+      <c r="A26" s="39">
         <v>5085.64</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="38">
         <v>42800</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="17">
+      <c r="A27" s="39">
         <v>2034.9</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="38">
         <v>42809</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="17">
+      <c r="A28" s="39">
         <v>4904.79</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="38">
         <v>42830</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="17">
+      <c r="A29" s="39">
         <v>2029.8</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="38">
         <v>42842</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="17">
+      <c r="A30" s="39">
         <v>4767.48</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="38">
         <v>42860</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="17">
+      <c r="A31" s="39">
         <v>2818.7</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="38">
         <v>42870</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="17">
+      <c r="A32" s="39">
         <v>5079.82</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="38">
         <v>42891</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="17">
+      <c r="A33" s="39">
         <v>2776.1</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="38">
         <v>42901</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="17">
+      <c r="A34" s="39">
         <v>4690.07</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="38">
         <v>42921</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="17">
+      <c r="A35" s="39">
         <v>2783.2</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="38">
         <v>42933</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="17">
+      <c r="A36" s="39">
         <v>4372.65</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="38">
         <v>43319</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="17">
+      <c r="A37" s="39">
         <v>2382.56</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="38">
         <v>42962</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="17">
+      <c r="A38" s="39">
         <v>1252.18</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="38">
         <v>42983</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="17">
+      <c r="A39" s="39">
         <v>656.75</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="38">
         <v>42993</v>
       </c>
       <c r="E39" t="s">
@@ -1443,165 +1584,165 @@
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="16"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="17">
+      <c r="A41" s="39">
         <v>8914</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="38">
         <v>42993</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="17">
+      <c r="A42" s="39">
         <v>9000</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="38">
         <v>43024</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="17">
+      <c r="A43" s="39">
         <v>18000</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="38">
         <v>43054</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="17">
+      <c r="A44" s="39">
         <v>18000</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="38">
         <v>43084</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="17">
+      <c r="A45" s="39">
         <v>18000</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="38">
         <v>43116</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="17">
+      <c r="A46" s="39">
         <v>6000</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="38">
         <v>43140</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="17">
+      <c r="A47" s="39">
         <v>20000</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="38">
         <v>43140</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="17">
+      <c r="A48" s="39">
         <v>18000</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="38">
         <v>43140</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="17">
+      <c r="A49" s="39">
         <v>20000</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="38">
         <v>43174</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="17">
+      <c r="A50" s="39">
         <v>20000</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="38">
         <v>43206</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="17">
+      <c r="A51" s="39">
         <v>20000</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="38">
         <v>43235</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="17">
+      <c r="A52" s="39">
         <v>20000</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="38">
         <v>43266</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="17">
+      <c r="A53" s="39">
         <v>19834</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="38">
         <v>43297</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="17">
+      <c r="A54" s="39">
         <v>20000</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="38">
         <v>43327</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="17">
+      <c r="A55" s="39">
         <v>20011</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="38">
         <v>43360</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="17">
+      <c r="A56" s="39">
         <v>20000</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="38">
         <v>43388</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="17">
+      <c r="A57" s="39">
         <v>20001</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="38">
         <v>43419</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="17">
+      <c r="A58" s="39">
         <v>20002</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="38">
         <v>43451</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="17">
+      <c r="A59" s="39">
         <v>108000</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="38">
         <v>43480</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="17">
+      <c r="A60" s="39">
         <v>20000</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="38">
         <v>43515</v>
       </c>
       <c r="E60" t="s">
@@ -1613,232 +1754,232 @@
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="16"/>
+      <c r="C61" s="38"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="16"/>
+      <c r="C62" s="38"/>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="16"/>
+      <c r="C63" s="38"/>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="16"/>
+      <c r="C64" s="38"/>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="16"/>
+      <c r="C65" s="38"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="16"/>
+      <c r="C66" s="38"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="16"/>
+      <c r="C67" s="38"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="16"/>
+      <c r="C68" s="38"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="16"/>
+      <c r="C69" s="38"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="16"/>
+      <c r="C70" s="38"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="16"/>
+      <c r="C71" s="38"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="16"/>
+      <c r="C72" s="38"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="16"/>
+      <c r="C73" s="38"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="16"/>
+      <c r="C74" s="38"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="16"/>
+      <c r="C75" s="38"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="16"/>
+      <c r="C76" s="38"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="16"/>
+      <c r="C77" s="38"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="16"/>
+      <c r="C78" s="38"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="16"/>
+      <c r="C79" s="38"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="16"/>
+      <c r="C80" s="38"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="16"/>
+      <c r="C81" s="38"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="16"/>
+      <c r="C82" s="38"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="16"/>
+      <c r="C83" s="38"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="16"/>
+      <c r="C84" s="38"/>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="16"/>
+      <c r="C85" s="38"/>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="16"/>
+      <c r="C86" s="38"/>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="16"/>
+      <c r="C87" s="38"/>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="16"/>
+      <c r="C88" s="38"/>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="16"/>
+      <c r="C89" s="38"/>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="16"/>
+      <c r="C90" s="38"/>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="16"/>
+      <c r="C91" s="38"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="16"/>
+      <c r="C92" s="38"/>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="16"/>
+      <c r="C93" s="38"/>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="16"/>
+      <c r="C94" s="38"/>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="16"/>
+      <c r="C95" s="38"/>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="16"/>
+      <c r="C96" s="38"/>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="16"/>
+      <c r="C97" s="38"/>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="16"/>
+      <c r="C98" s="38"/>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="16"/>
+      <c r="C99" s="38"/>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="16"/>
+      <c r="C100" s="38"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="16"/>
+      <c r="C101" s="38"/>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="16"/>
+      <c r="C102" s="38"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="16"/>
+      <c r="C103" s="38"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="16"/>
+      <c r="C104" s="38"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="16"/>
+      <c r="C105" s="38"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="16"/>
+      <c r="C106" s="38"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="16"/>
+      <c r="C107" s="38"/>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="16"/>
+      <c r="C108" s="38"/>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="16"/>
+      <c r="C109" s="38"/>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="16"/>
+      <c r="C110" s="38"/>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="16"/>
+      <c r="C111" s="38"/>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="16"/>
+      <c r="C112" s="38"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="16"/>
+      <c r="C113" s="38"/>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="16"/>
+      <c r="C114" s="38"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="16"/>
+      <c r="C115" s="38"/>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="16"/>
+      <c r="C116" s="38"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="16"/>
+      <c r="C117" s="38"/>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="16"/>
+      <c r="C118" s="38"/>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="16"/>
+      <c r="C119" s="38"/>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="16"/>
+      <c r="C120" s="38"/>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="16"/>
+      <c r="C121" s="38"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="16"/>
+      <c r="C122" s="38"/>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="16"/>
+      <c r="C123" s="38"/>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="16"/>
+      <c r="C124" s="38"/>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="16"/>
+      <c r="C125" s="38"/>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="16"/>
+      <c r="C126" s="38"/>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="16"/>
+      <c r="C127" s="38"/>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="16"/>
+      <c r="C128" s="38"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="16"/>
+      <c r="C129" s="38"/>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="16"/>
+      <c r="C130" s="38"/>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="16"/>
+      <c r="C131" s="38"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="16"/>
+      <c r="C132" s="38"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="16"/>
+      <c r="C133" s="38"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="16"/>
+      <c r="C134" s="38"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="16"/>
+      <c r="C135" s="38"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="16"/>
+      <c r="C136" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1855,14 +1996,14 @@
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="13.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="16">
+      <c r="A1" s="38">
         <v>42426</v>
       </c>
       <c r="B1">
@@ -1870,7 +2011,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16">
+      <c r="A2" s="38">
         <v>42454</v>
       </c>
       <c r="B2">
@@ -1878,7 +2019,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16">
+      <c r="A3" s="38">
         <v>42469</v>
       </c>
       <c r="B3">
@@ -1886,7 +2027,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16">
+      <c r="A4" s="38">
         <v>42498</v>
       </c>
       <c r="B4">
@@ -1894,7 +2035,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16">
+      <c r="A5" s="38">
         <v>42507</v>
       </c>
       <c r="B5">
@@ -1902,7 +2043,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16">
+      <c r="A6" s="38">
         <v>42538</v>
       </c>
       <c r="B6">
@@ -1910,7 +2051,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16">
+      <c r="A7" s="38">
         <v>42559</v>
       </c>
       <c r="B7">
@@ -1918,7 +2059,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16">
+      <c r="A8" s="38">
         <v>42583</v>
       </c>
       <c r="B8">
@@ -1926,7 +2067,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="16">
+      <c r="A9" s="38">
         <v>42606</v>
       </c>
       <c r="B9">
@@ -1934,7 +2075,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="16">
+      <c r="A10" s="38">
         <v>42649</v>
       </c>
       <c r="B10">
@@ -1942,7 +2083,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16">
+      <c r="A11" s="38">
         <v>42676</v>
       </c>
       <c r="B11">
@@ -1950,7 +2091,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16">
+      <c r="A12" s="38">
         <v>42685</v>
       </c>
       <c r="B12">
@@ -1958,7 +2099,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16">
+      <c r="A13" s="38">
         <v>42719</v>
       </c>
       <c r="B13">
@@ -1966,7 +2107,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="16">
+      <c r="A14" s="38">
         <v>42722</v>
       </c>
       <c r="B14">
@@ -1974,7 +2115,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="16">
+      <c r="A15" s="38">
         <v>42753</v>
       </c>
       <c r="B15">
@@ -1982,7 +2123,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="16">
+      <c r="A16" s="38">
         <v>42782</v>
       </c>
       <c r="B16">
@@ -1990,7 +2131,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="16">
+      <c r="A17" s="38">
         <v>42797</v>
       </c>
       <c r="B17">
@@ -1998,7 +2139,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="16">
+      <c r="A18" s="38">
         <v>42818</v>
       </c>
       <c r="B18">
@@ -2006,7 +2147,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="16">
+      <c r="A19" s="38">
         <v>42863</v>
       </c>
       <c r="B19">
@@ -2014,7 +2155,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="16">
+      <c r="A20" s="38">
         <v>42876</v>
       </c>
       <c r="B20">
@@ -2022,7 +2163,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16">
+      <c r="A21" s="38">
         <v>42897</v>
       </c>
       <c r="B21">
@@ -2030,7 +2171,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16">
+      <c r="A22" s="38">
         <v>42914</v>
       </c>
       <c r="B22">
@@ -2038,7 +2179,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16">
+      <c r="A23" s="38">
         <v>42920</v>
       </c>
       <c r="B23">
@@ -2046,7 +2187,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="16">
+      <c r="A24" s="38">
         <v>42957</v>
       </c>
       <c r="B24">
@@ -2054,7 +2195,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="16">
+      <c r="A25" s="38">
         <v>42962</v>
       </c>
       <c r="B25">
@@ -2062,7 +2203,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="16">
+      <c r="A26" s="38">
         <v>42986</v>
       </c>
       <c r="B26">
@@ -2070,7 +2211,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="16">
+      <c r="A27" s="38">
         <v>43010</v>
       </c>
       <c r="B27">
@@ -2078,7 +2219,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16">
+      <c r="A28" s="38">
         <v>43026</v>
       </c>
       <c r="B28">
@@ -2086,7 +2227,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="16">
+      <c r="A29" s="38">
         <v>43050</v>
       </c>
       <c r="B29">
@@ -2094,7 +2235,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="16">
+      <c r="A30" s="38">
         <v>43070</v>
       </c>
       <c r="B30">
@@ -2102,7 +2243,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="16">
+      <c r="A31" s="38">
         <v>43087</v>
       </c>
       <c r="B31">
@@ -2110,7 +2251,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="16">
+      <c r="A32" s="38">
         <v>43099</v>
       </c>
       <c r="B32">
@@ -2118,7 +2259,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="16">
+      <c r="A33" s="38">
         <v>43103</v>
       </c>
       <c r="B33">
@@ -2126,7 +2267,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="16">
+      <c r="A34" s="38">
         <v>43139</v>
       </c>
       <c r="B34">
@@ -2134,7 +2275,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="16">
+      <c r="A35" s="38">
         <v>43173</v>
       </c>
       <c r="B35">
@@ -2142,7 +2283,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="16">
+      <c r="A36" s="38">
         <v>43187</v>
       </c>
       <c r="B36">
@@ -2157,10 +2298,10 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="16"/>
+      <c r="A37" s="38"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="16">
+      <c r="A38" s="38">
         <v>43187</v>
       </c>
       <c r="B38">
@@ -2168,7 +2309,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="16">
+      <c r="A39" s="38">
         <v>43215</v>
       </c>
       <c r="B39">
@@ -2176,7 +2317,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="16">
+      <c r="A40" s="38">
         <v>43246</v>
       </c>
       <c r="B40">
@@ -2184,7 +2325,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="16">
+      <c r="A41" s="38">
         <v>43277</v>
       </c>
       <c r="B41">
@@ -2192,7 +2333,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="16">
+      <c r="A42" s="38">
         <v>43306</v>
       </c>
       <c r="B42">
@@ -2200,7 +2341,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="16">
+      <c r="A43" s="38">
         <v>43306</v>
       </c>
       <c r="B43">
@@ -2208,7 +2349,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="16">
+      <c r="A44" s="38">
         <v>43339</v>
       </c>
       <c r="B44">
@@ -2216,7 +2357,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="16">
+      <c r="A45" s="38">
         <v>43369</v>
       </c>
       <c r="B45">
@@ -2224,7 +2365,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="16">
+      <c r="A46" s="38">
         <v>43400</v>
       </c>
       <c r="B46">
@@ -2232,7 +2373,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="16">
+      <c r="A47" s="38">
         <v>43430</v>
       </c>
       <c r="B47">
@@ -2240,7 +2381,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="16">
+      <c r="A48" s="38">
         <v>43460</v>
       </c>
       <c r="B48">
@@ -2248,7 +2389,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="16">
+      <c r="A49" s="38">
         <v>43491</v>
       </c>
       <c r="B49">
@@ -2256,7 +2397,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="16">
+      <c r="A50" s="38">
         <v>43523</v>
       </c>
       <c r="B50">
@@ -2281,496 +2422,557 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="1"/>
-    <col min="6" max="6" width="10.6666666666667" style="1"/>
-    <col min="7" max="7" width="9.66666666666667" style="1"/>
-    <col min="8" max="8" width="12.8888888888889" style="2"/>
-    <col min="9" max="16384" width="8.88888888888889" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" style="2"/>
+    <col min="6" max="6" width="17.125" style="3"/>
+    <col min="7" max="7" width="11.5" style="3"/>
+    <col min="8" max="8" width="12.8916666666667" style="5"/>
+    <col min="9" max="16384" width="8.89166666666667" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3">
+      <c r="H1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9">
         <v>43393.4847222222</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9">
         <v>43412.86875</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9">
         <v>43412.8701388889</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9">
         <v>43417.5555555556</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
         <v>50011</v>
       </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="9">
         <v>43424.6666666667</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
         <v>20012</v>
       </c>
-      <c r="E6" s="3">
+      <c r="D6" s="11"/>
+      <c r="E6" s="9">
         <v>43442.2173611111</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>76573</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="9">
         <v>43451.4458333333</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
         <v>10000</v>
       </c>
-      <c r="E7" s="3">
+      <c r="D7" s="11"/>
+      <c r="E7" s="9">
         <v>43445.7159722222</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>34295.42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="9">
         <v>43451.7354166667</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
         <v>34000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="D8" s="11"/>
+      <c r="E8" s="9">
         <v>43461.3208333333</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>43978.77</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="3">
         <f>SUM(C2:C8)</f>
         <v>154023</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3">
         <f>SUM(F6:F8)</f>
         <v>154847.19</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <f>F9-C9</f>
         <v>824.190000000002</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <f>G9/C9*100</f>
         <v>0.53510839290236</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="19">
         <v>43481.5263888889</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="21">
         <v>50000</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="9">
-        <v>50744.6</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="24">
+        <v>50799.08</v>
+      </c>
+      <c r="G11" s="24">
         <f>F11-C11</f>
-        <v>744.599999999999</v>
-      </c>
-      <c r="H11" s="10">
+        <v>799.080000000002</v>
+      </c>
+      <c r="H11" s="25">
         <f>G11/C11*100</f>
-        <v>1.4892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3">
+        <v>1.59816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9">
         <v>43442.2097222222</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>63432</v>
       </c>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3">
+      <c r="A14" s="9">
         <v>43469.4368055556</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>76070</v>
       </c>
-      <c r="E14" s="3">
+      <c r="D14" s="26"/>
+      <c r="E14" s="9">
         <v>43483.7402777778</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>139937.84</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="3">
         <f>SUM(C13:C14)</f>
         <v>139502</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="1">
+      <c r="D15" s="27"/>
+      <c r="E15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3">
         <f>SUM(F14)</f>
         <v>139937.84</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <f>F15-C15</f>
         <v>435.839999999997</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <f>G15/C15*100</f>
         <v>0.312425628306402</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
+      <c r="A17" s="9">
         <v>43462.8777777778</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>4000</v>
       </c>
-      <c r="E17" s="11">
+      <c r="D17" s="10"/>
+      <c r="E17" s="32">
         <v>43482.9083333333</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="33">
         <v>3987.95</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="33">
         <f>F17-C17</f>
         <v>-12.0500000000002</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="34">
         <f>G17/C17*100</f>
         <v>-0.301250000000005</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3">
+      <c r="A18" s="9">
         <v>43480.875</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>50000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="D18" s="13"/>
+      <c r="E18" s="9">
         <v>43495.3368055556</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>50154.84</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
         <f>F18-C18</f>
         <v>154.839999999997</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <f>G18/C18*100</f>
         <v>0.309679999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3">
+      <c r="A20" s="9">
         <v>43447.5159722222</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>40000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="D20" s="10"/>
+      <c r="E20" s="9">
         <v>43481.1930555556</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>40377.47</v>
       </c>
-      <c r="G20" s="1">
-        <f>F20-C20</f>
+      <c r="G20" s="3">
+        <f t="shared" ref="G20:G25" si="0">F20-C20</f>
         <v>377.470000000001</v>
       </c>
-      <c r="H20" s="2">
-        <f>G20/C20*100</f>
+      <c r="H20" s="5">
+        <f t="shared" ref="H20:H25" si="1">G20/C20*100</f>
         <v>0.943675000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3">
+      <c r="A21" s="9">
         <v>43461.5159722222</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>10000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="D21" s="11"/>
+      <c r="E21" s="9">
         <v>43495.7361111111</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>10076</v>
       </c>
-      <c r="G21" s="1">
-        <f>F21-C21</f>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="H21" s="2">
-        <f>G21/C21*100</f>
+      <c r="H21" s="5">
+        <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="3">
+      <c r="A22" s="9">
         <v>43461.5194444444</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>30000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="D22" s="11"/>
+      <c r="E22" s="9">
         <v>43497.7173611111</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>30233.09</v>
       </c>
-      <c r="G22" s="1">
-        <f>F22-C22</f>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
         <v>233.09</v>
       </c>
-      <c r="H22" s="2">
-        <f>G22/C22*100</f>
+      <c r="H22" s="5">
+        <f t="shared" si="1"/>
         <v>0.776966666666667</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="3">
+      <c r="A23" s="9">
         <v>43487.5090277778</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>100000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="D23" s="11"/>
+      <c r="E23" s="9">
         <v>43515.5805555556</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>102781.77</v>
       </c>
-      <c r="G23" s="1">
-        <f>F23-C23</f>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
         <v>2781.77</v>
       </c>
-      <c r="H23" s="2">
-        <f>G23/C23*100</f>
+      <c r="H23" s="5">
+        <f t="shared" si="1"/>
         <v>2.78177</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3">
+      <c r="A24" s="9">
         <v>43510.5138888889</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>100000</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="9">
-        <v>103238.86</v>
-      </c>
-      <c r="G24" s="14">
+      <c r="D24" s="11"/>
+      <c r="E24" s="9">
+        <v>43528.6034722222</v>
+      </c>
+      <c r="F24" s="3">
+        <f>104079.35-104.18</f>
+        <v>103975.17</v>
+      </c>
+      <c r="G24" s="3">
         <f>F24-C24</f>
-        <v>3238.86</v>
-      </c>
-      <c r="H24" s="15">
+        <v>3975.17000000001</v>
+      </c>
+      <c r="H24" s="5">
         <f>G24/C24*100</f>
-        <v>3.23886</v>
+        <v>3.97517000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="3">
+      <c r="A25" s="9">
         <v>43515.8868055556</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>20000</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="9">
-        <v>21989.68</v>
-      </c>
-      <c r="G25" s="14">
+      <c r="D25" s="11"/>
+      <c r="E25" s="9">
+        <v>43528.6055555556</v>
+      </c>
+      <c r="F25" s="3">
+        <v>22605.22</v>
+      </c>
+      <c r="G25" s="3">
         <f>F25-C25</f>
-        <v>1989.68</v>
-      </c>
-      <c r="H25" s="15">
+        <v>2605.22</v>
+      </c>
+      <c r="H25" s="5">
         <f>G25/C25*100</f>
-        <v>9.9484</v>
+        <v>13.0261</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7">
+      <c r="A26" s="19">
         <v>43525.6097222222</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="21">
         <v>20000</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+      <c r="F26" s="24">
+        <v>22541.98</v>
+      </c>
+      <c r="G26" s="24">
+        <f>F26-C26</f>
+        <v>2541.98</v>
+      </c>
+      <c r="H26" s="25">
+        <f>G26/C26*100</f>
+        <v>12.7099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="6:7">
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="33">
         <f>SUM(G2:G27)</f>
-        <v>10844.29</v>
+        <v>14792.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/getTorrnet/hangzou.xlsx
+++ b/getTorrnet/hangzou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11055" activeTab="2"/>
+    <workbookView windowWidth="26670" windowHeight="10560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="gongzhi" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>奥点 总计</t>
   </si>
@@ -60,7 +60,7 @@
     <t>赎回总计</t>
   </si>
   <si>
-    <t>赎回中</t>
+    <t>2019/03/08/ 9:32</t>
   </si>
   <si>
     <t>建信纯债C</t>
@@ -81,9 +81,6 @@
     <t>天宏中证计算机C</t>
   </si>
   <si>
-    <t>当前价值</t>
-  </si>
-  <si>
     <t>合计收益</t>
   </si>
 </sst>
@@ -93,11 +90,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -115,13 +112,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -129,8 +120,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +151,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -159,23 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,17 +202,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,22 +241,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,37 +265,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,157 +427,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +556,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -576,7 +602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,37 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,21 +651,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -668,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,158 +671,155 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,15 +835,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,40 +862,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1000,7 +964,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1250,329 +1214,329 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13" style="39"/>
+    <col min="1" max="1" width="13" style="30"/>
     <col min="3" max="3" width="18.1083333333333" customWidth="1"/>
     <col min="5" max="5" width="16.775" customWidth="1"/>
     <col min="6" max="6" width="10.6666666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="39">
+      <c r="A1" s="30">
         <v>120</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="29">
         <v>42436</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="39">
+      <c r="A2" s="30">
         <v>110.48</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="29">
         <v>42444</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="39">
+      <c r="A3" s="30">
         <v>2006.14</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="29">
         <v>42465</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="39">
+      <c r="A4" s="30">
         <v>2320</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="29">
         <v>42475</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="39">
+      <c r="A5" s="30">
         <v>3504.14</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="29">
         <v>42495</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="39">
+      <c r="A6" s="30">
         <v>1625.03</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="29">
         <v>42506</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="39">
+      <c r="A7" s="30">
         <v>5054.03</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="29">
         <v>42527</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="39">
+      <c r="A8" s="30">
         <v>1718.25</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="29">
         <v>42536</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="39">
+      <c r="A9" s="30">
         <v>4361.8</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="29">
         <v>42556</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="39">
+      <c r="A10" s="30">
         <v>2014.5</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="29">
         <v>42566</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="39">
+      <c r="A11" s="30">
         <v>4391.12</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="29">
         <v>42587</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="39">
+      <c r="A12" s="30">
         <v>2019.6</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="29">
         <v>42597</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="39">
+      <c r="A13" s="30">
         <v>4429.92</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="29">
         <v>42621</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="39">
+      <c r="A14" s="30">
         <v>2014.5</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="29">
         <v>42631</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="39">
+      <c r="A15" s="30">
         <v>4265.02</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="29">
         <v>42651</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="39">
+      <c r="A16" s="30">
         <v>2014.5</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="29">
         <v>42660</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="39">
+      <c r="A17" s="30">
         <v>4866.42</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="29">
         <v>42681</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="39">
+      <c r="A18" s="30">
         <v>2014.5</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="29">
         <v>42681</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="39">
+      <c r="A19" s="30">
         <v>5215.62</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="29">
         <v>42709</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="39">
+      <c r="A20" s="30">
         <v>2014.5</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="29">
         <v>42719</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="39">
+      <c r="A21" s="30">
         <v>5205.92</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="29">
         <v>42740</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="39">
+      <c r="A22" s="30">
         <v>2016.6</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="29">
         <v>42751</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="39">
+      <c r="A23" s="30">
         <v>1960</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="29">
         <v>42752</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="39">
+      <c r="A24" s="30">
         <v>5147.72</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="29">
         <v>42772</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="39">
+      <c r="A25" s="30">
         <v>2019.6</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="29">
         <v>42781</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="39">
+      <c r="A26" s="30">
         <v>5085.64</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="29">
         <v>42800</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="39">
+      <c r="A27" s="30">
         <v>2034.9</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="29">
         <v>42809</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="39">
+      <c r="A28" s="30">
         <v>4904.79</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="29">
         <v>42830</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="39">
+      <c r="A29" s="30">
         <v>2029.8</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="29">
         <v>42842</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="39">
+      <c r="A30" s="30">
         <v>4767.48</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="29">
         <v>42860</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="39">
+      <c r="A31" s="30">
         <v>2818.7</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="29">
         <v>42870</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="39">
+      <c r="A32" s="30">
         <v>5079.82</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="29">
         <v>42891</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="39">
+      <c r="A33" s="30">
         <v>2776.1</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="29">
         <v>42901</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="39">
+      <c r="A34" s="30">
         <v>4690.07</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="29">
         <v>42921</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="39">
+      <c r="A35" s="30">
         <v>2783.2</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="29">
         <v>42933</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="39">
+      <c r="A36" s="30">
         <v>4372.65</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="29">
         <v>43319</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="39">
+      <c r="A37" s="30">
         <v>2382.56</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="29">
         <v>42962</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="39">
+      <c r="A38" s="30">
         <v>1252.18</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="29">
         <v>42983</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="39">
+      <c r="A39" s="30">
         <v>656.75</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="29">
         <v>42993</v>
       </c>
       <c r="E39" t="s">
@@ -1584,402 +1548,415 @@
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="38"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="39">
+      <c r="A41" s="30">
         <v>8914</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="29">
         <v>42993</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="39">
+      <c r="A42" s="30">
         <v>9000</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="29">
         <v>43024</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="39">
+      <c r="A43" s="30">
         <v>18000</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="29">
         <v>43054</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="39">
+      <c r="A44" s="30">
         <v>18000</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="29">
         <v>43084</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="39">
+      <c r="A45" s="30">
         <v>18000</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="29">
         <v>43116</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="39">
+      <c r="A46" s="30">
         <v>6000</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="29">
         <v>43140</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="39">
+      <c r="A47" s="30">
         <v>20000</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="29">
         <v>43140</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="39">
+      <c r="A48" s="30">
         <v>18000</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="29">
         <v>43140</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="39">
+      <c r="A49" s="30">
         <v>20000</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="29">
         <v>43174</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="39">
+      <c r="A50" s="30">
         <v>20000</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50" s="29">
         <v>43206</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="39">
+      <c r="A51" s="30">
         <v>20000</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="29">
         <v>43235</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="39">
+      <c r="A52" s="30">
         <v>20000</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="29">
         <v>43266</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="39">
+      <c r="A53" s="30">
         <v>19834</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="29">
         <v>43297</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="39">
+      <c r="A54" s="30">
         <v>20000</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54" s="29">
         <v>43327</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="39">
+      <c r="A55" s="30">
         <v>20011</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="29">
         <v>43360</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="39">
+      <c r="A56" s="30">
         <v>20000</v>
       </c>
-      <c r="C56" s="38">
+      <c r="C56" s="29">
         <v>43388</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="39">
+      <c r="A57" s="30">
         <v>20001</v>
       </c>
-      <c r="C57" s="38">
+      <c r="C57" s="29">
         <v>43419</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="39">
+      <c r="A58" s="30">
         <v>20002</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58" s="29">
         <v>43451</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="39">
+      <c r="A59" s="30">
         <v>108000</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="29">
         <v>43480</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="39">
+    <row r="60" spans="1:3">
+      <c r="A60" s="30">
         <v>20000</v>
       </c>
-      <c r="C60" s="38">
+      <c r="C60" s="29">
         <v>43515</v>
       </c>
-      <c r="E60" t="s">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="30">
+        <v>20000</v>
+      </c>
+      <c r="C61" s="29">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="30">
+        <v>19047</v>
+      </c>
+      <c r="C62" s="29">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="29"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="29"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="29"/>
+    </row>
+    <row r="66" spans="3:6">
+      <c r="C66" s="29"/>
+      <c r="E66" t="s">
         <v>1</v>
       </c>
-      <c r="F60">
-        <f>SUM(A41:A60)</f>
-        <v>443762</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="38"/>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="38"/>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="38"/>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="38"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="38"/>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="38"/>
+      <c r="F66">
+        <f>SUM(A41:A62)</f>
+        <v>482809</v>
+      </c>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="38"/>
+      <c r="C67" s="29"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="38"/>
+      <c r="C68" s="29"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="38"/>
+      <c r="C69" s="29"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="38"/>
+      <c r="C70" s="29"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="38"/>
+      <c r="C71" s="29"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="38"/>
+      <c r="C72" s="29"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="38"/>
+      <c r="C73" s="29"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="38"/>
+      <c r="C74" s="29"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="38"/>
+      <c r="C75" s="29"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="38"/>
+      <c r="C76" s="29"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="38"/>
+      <c r="C77" s="29"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="38"/>
+      <c r="C78" s="29"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="38"/>
+      <c r="C79" s="29"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="38"/>
+      <c r="C80" s="29"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="38"/>
+      <c r="C81" s="29"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="38"/>
+      <c r="C82" s="29"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="38"/>
+      <c r="C83" s="29"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="38"/>
+      <c r="C84" s="29"/>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="38"/>
+      <c r="C85" s="29"/>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="38"/>
+      <c r="C86" s="29"/>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="38"/>
+      <c r="C87" s="29"/>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="38"/>
+      <c r="C88" s="29"/>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="38"/>
+      <c r="C89" s="29"/>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="38"/>
+      <c r="C90" s="29"/>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="38"/>
+      <c r="C91" s="29"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="38"/>
+      <c r="C92" s="29"/>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="38"/>
+      <c r="C93" s="29"/>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="38"/>
+      <c r="C94" s="29"/>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="38"/>
+      <c r="C95" s="29"/>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="38"/>
+      <c r="C96" s="29"/>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="38"/>
+      <c r="C97" s="29"/>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="38"/>
+      <c r="C98" s="29"/>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="38"/>
+      <c r="C99" s="29"/>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="38"/>
+      <c r="C100" s="29"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="38"/>
+      <c r="C101" s="29"/>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="38"/>
+      <c r="C102" s="29"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="38"/>
+      <c r="C103" s="29"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="38"/>
+      <c r="C104" s="29"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="38"/>
+      <c r="C105" s="29"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="38"/>
+      <c r="C106" s="29"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="38"/>
+      <c r="C107" s="29"/>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="38"/>
+      <c r="C108" s="29"/>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="38"/>
+      <c r="C109" s="29"/>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="38"/>
+      <c r="C110" s="29"/>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="38"/>
+      <c r="C111" s="29"/>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="38"/>
+      <c r="C112" s="29"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="38"/>
+      <c r="C113" s="29"/>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="38"/>
+      <c r="C114" s="29"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="38"/>
+      <c r="C115" s="29"/>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="38"/>
+      <c r="C116" s="29"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="38"/>
+      <c r="C117" s="29"/>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="38"/>
+      <c r="C118" s="29"/>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="38"/>
+      <c r="C119" s="29"/>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="38"/>
+      <c r="C120" s="29"/>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="38"/>
+      <c r="C121" s="29"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="38"/>
+      <c r="C122" s="29"/>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="38"/>
+      <c r="C123" s="29"/>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="38"/>
+      <c r="C124" s="29"/>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="38"/>
+      <c r="C125" s="29"/>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="38"/>
+      <c r="C126" s="29"/>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="38"/>
+      <c r="C127" s="29"/>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="38"/>
+      <c r="C128" s="29"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="38"/>
+      <c r="C129" s="29"/>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="38"/>
+      <c r="C130" s="29"/>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="38"/>
+      <c r="C131" s="29"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="38"/>
+      <c r="C132" s="29"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="38"/>
+      <c r="C133" s="29"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="38"/>
+      <c r="C134" s="29"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="38"/>
+      <c r="C135" s="29"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="38"/>
+      <c r="C136" s="29"/>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1990,10 +1967,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2003,7 +1980,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="38">
+      <c r="A1" s="29">
         <v>42426</v>
       </c>
       <c r="B1">
@@ -2011,7 +1988,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38">
+      <c r="A2" s="29">
         <v>42454</v>
       </c>
       <c r="B2">
@@ -2019,7 +1996,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="38">
+      <c r="A3" s="29">
         <v>42469</v>
       </c>
       <c r="B3">
@@ -2027,7 +2004,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="38">
+      <c r="A4" s="29">
         <v>42498</v>
       </c>
       <c r="B4">
@@ -2035,7 +2012,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="38">
+      <c r="A5" s="29">
         <v>42507</v>
       </c>
       <c r="B5">
@@ -2043,7 +2020,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38">
+      <c r="A6" s="29">
         <v>42538</v>
       </c>
       <c r="B6">
@@ -2051,7 +2028,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="38">
+      <c r="A7" s="29">
         <v>42559</v>
       </c>
       <c r="B7">
@@ -2059,7 +2036,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="38">
+      <c r="A8" s="29">
         <v>42583</v>
       </c>
       <c r="B8">
@@ -2067,7 +2044,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="38">
+      <c r="A9" s="29">
         <v>42606</v>
       </c>
       <c r="B9">
@@ -2075,7 +2052,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="38">
+      <c r="A10" s="29">
         <v>42649</v>
       </c>
       <c r="B10">
@@ -2083,7 +2060,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38">
+      <c r="A11" s="29">
         <v>42676</v>
       </c>
       <c r="B11">
@@ -2091,7 +2068,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="38">
+      <c r="A12" s="29">
         <v>42685</v>
       </c>
       <c r="B12">
@@ -2099,7 +2076,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="38">
+      <c r="A13" s="29">
         <v>42719</v>
       </c>
       <c r="B13">
@@ -2107,7 +2084,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="38">
+      <c r="A14" s="29">
         <v>42722</v>
       </c>
       <c r="B14">
@@ -2115,7 +2092,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="38">
+      <c r="A15" s="29">
         <v>42753</v>
       </c>
       <c r="B15">
@@ -2123,7 +2100,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38">
+      <c r="A16" s="29">
         <v>42782</v>
       </c>
       <c r="B16">
@@ -2131,7 +2108,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="38">
+      <c r="A17" s="29">
         <v>42797</v>
       </c>
       <c r="B17">
@@ -2139,7 +2116,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="38">
+      <c r="A18" s="29">
         <v>42818</v>
       </c>
       <c r="B18">
@@ -2147,7 +2124,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="38">
+      <c r="A19" s="29">
         <v>42863</v>
       </c>
       <c r="B19">
@@ -2155,7 +2132,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="38">
+      <c r="A20" s="29">
         <v>42876</v>
       </c>
       <c r="B20">
@@ -2163,7 +2140,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="38">
+      <c r="A21" s="29">
         <v>42897</v>
       </c>
       <c r="B21">
@@ -2171,7 +2148,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="38">
+      <c r="A22" s="29">
         <v>42914</v>
       </c>
       <c r="B22">
@@ -2179,7 +2156,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="38">
+      <c r="A23" s="29">
         <v>42920</v>
       </c>
       <c r="B23">
@@ -2187,7 +2164,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="38">
+      <c r="A24" s="29">
         <v>42957</v>
       </c>
       <c r="B24">
@@ -2195,7 +2172,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="38">
+      <c r="A25" s="29">
         <v>42962</v>
       </c>
       <c r="B25">
@@ -2203,7 +2180,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="38">
+      <c r="A26" s="29">
         <v>42986</v>
       </c>
       <c r="B26">
@@ -2211,7 +2188,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="38">
+      <c r="A27" s="29">
         <v>43010</v>
       </c>
       <c r="B27">
@@ -2219,7 +2196,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="38">
+      <c r="A28" s="29">
         <v>43026</v>
       </c>
       <c r="B28">
@@ -2227,7 +2204,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="38">
+      <c r="A29" s="29">
         <v>43050</v>
       </c>
       <c r="B29">
@@ -2235,7 +2212,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="38">
+      <c r="A30" s="29">
         <v>43070</v>
       </c>
       <c r="B30">
@@ -2243,7 +2220,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="38">
+      <c r="A31" s="29">
         <v>43087</v>
       </c>
       <c r="B31">
@@ -2251,7 +2228,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="38">
+      <c r="A32" s="29">
         <v>43099</v>
       </c>
       <c r="B32">
@@ -2259,7 +2236,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="38">
+      <c r="A33" s="29">
         <v>43103</v>
       </c>
       <c r="B33">
@@ -2267,7 +2244,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="38">
+      <c r="A34" s="29">
         <v>43139</v>
       </c>
       <c r="B34">
@@ -2275,7 +2252,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="38">
+      <c r="A35" s="29">
         <v>43173</v>
       </c>
       <c r="B35">
@@ -2283,7 +2260,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="38">
+      <c r="A36" s="29">
         <v>43187</v>
       </c>
       <c r="B36">
@@ -2298,10 +2275,10 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="38"/>
+      <c r="A37" s="29"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="38">
+      <c r="A38" s="29">
         <v>43187</v>
       </c>
       <c r="B38">
@@ -2309,7 +2286,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="38">
+      <c r="A39" s="29">
         <v>43215</v>
       </c>
       <c r="B39">
@@ -2317,7 +2294,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="38">
+      <c r="A40" s="29">
         <v>43246</v>
       </c>
       <c r="B40">
@@ -2325,7 +2302,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="38">
+      <c r="A41" s="29">
         <v>43277</v>
       </c>
       <c r="B41">
@@ -2333,7 +2310,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="38">
+      <c r="A42" s="29">
         <v>43306</v>
       </c>
       <c r="B42">
@@ -2341,7 +2318,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="38">
+      <c r="A43" s="29">
         <v>43306</v>
       </c>
       <c r="B43">
@@ -2349,7 +2326,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="38">
+      <c r="A44" s="29">
         <v>43339</v>
       </c>
       <c r="B44">
@@ -2357,7 +2334,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="38">
+      <c r="A45" s="29">
         <v>43369</v>
       </c>
       <c r="B45">
@@ -2365,7 +2342,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="38">
+      <c r="A46" s="29">
         <v>43400</v>
       </c>
       <c r="B46">
@@ -2373,7 +2350,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="38">
+      <c r="A47" s="29">
         <v>43430</v>
       </c>
       <c r="B47">
@@ -2381,7 +2358,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="38">
+      <c r="A48" s="29">
         <v>43460</v>
       </c>
       <c r="B48">
@@ -2389,24 +2366,34 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="38">
+      <c r="A49" s="29">
         <v>43491</v>
       </c>
       <c r="B49">
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="38">
+    <row r="50" spans="1:2">
+      <c r="A50" s="29">
         <v>43523</v>
       </c>
       <c r="B50">
         <v>1900</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="29">
+        <v>43552</v>
+      </c>
+      <c r="B51">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" t="s">
         <v>3</v>
       </c>
-      <c r="E50">
+      <c r="E55">
         <f>SUM(B38:B50)</f>
         <v>25536</v>
       </c>
@@ -2420,169 +2407,168 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.3333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.4416666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="2"/>
-    <col min="6" max="6" width="17.125" style="3"/>
-    <col min="7" max="7" width="11.5" style="3"/>
+    <col min="1" max="1" width="22.3333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.4416666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" style="3"/>
+    <col min="6" max="6" width="17.125" style="4"/>
+    <col min="7" max="7" width="12.625" style="4"/>
     <col min="8" max="8" width="12.8916666666667" style="5"/>
-    <col min="9" max="16384" width="8.89166666666667" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.89166666666667" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>43393.4847222222</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>20000</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>43412.86875</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>10000</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>43412.8701388889</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>10000</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>43417.5555555556</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>50011</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>43424.6666666667</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>20012</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9">
+      <c r="D6" s="10"/>
+      <c r="E6" s="8">
         <v>43442.2173611111</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>76573</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>43451.4458333333</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>10000</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9">
+      <c r="D7" s="10"/>
+      <c r="E7" s="8">
         <v>43445.7159722222</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>34295.42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>43451.7354166667</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>34000</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9">
+      <c r="D8" s="10"/>
+      <c r="E8" s="8">
         <v>43461.3208333333</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>43978.77</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="4">
         <f>SUM(C2:C8)</f>
         <v>154023</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <f>SUM(F6:F8)</f>
         <v>154847.19</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <f>F9-C9</f>
         <v>824.190000000002</v>
       </c>
@@ -2592,93 +2578,93 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <v>43481.5263888889</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>50000</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="24">
-        <v>50799.08</v>
-      </c>
-      <c r="G11" s="24">
+      <c r="F11" s="18">
+        <v>50799.12</v>
+      </c>
+      <c r="G11" s="18">
         <f>F11-C11</f>
-        <v>799.080000000002</v>
-      </c>
-      <c r="H11" s="25">
+        <v>799.120000000003</v>
+      </c>
+      <c r="H11" s="20">
         <f>G11/C11*100</f>
-        <v>1.59816</v>
+        <v>1.59824000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="8"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>43442.2097222222</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>63432</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>43469.4368055556</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>76070</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="9">
+      <c r="D14" s="21"/>
+      <c r="E14" s="8">
         <v>43483.7402777778</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>139937.84</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="4">
         <f>SUM(C13:C14)</f>
         <v>139502</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <f>SUM(F14)</f>
         <v>139937.84</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <f>F15-C15</f>
         <v>435.839999999997</v>
       </c>
@@ -2688,59 +2674,59 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>43462.8777777778</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>4000</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="32">
+      <c r="D17" s="9"/>
+      <c r="E17" s="23">
         <v>43482.9083333333</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="24">
         <v>3987.95</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="24">
         <f>F17-C17</f>
         <v>-12.0500000000002</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="25">
         <f>G17/C17*100</f>
         <v>-0.301250000000005</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>43480.875</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>50000</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="9">
+      <c r="D18" s="11"/>
+      <c r="E18" s="8">
         <v>43495.3368055556</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>50154.84</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <f>F18-C18</f>
         <v>154.839999999997</v>
       </c>
@@ -2750,59 +2736,59 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>43447.5159722222</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>40000</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9">
+      <c r="D20" s="9"/>
+      <c r="E20" s="8">
         <v>43481.1930555556</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>40377.47</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" ref="G20:G25" si="0">F20-C20</f>
+      <c r="G20" s="4">
+        <f t="shared" ref="G20:G27" si="0">F20-C20</f>
         <v>377.470000000001</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" ref="H20:H25" si="1">G20/C20*100</f>
+        <f t="shared" ref="H20:H27" si="1">G20/C20*100</f>
         <v>0.943675000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>43461.5159722222</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>10000</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="9">
+      <c r="D21" s="10"/>
+      <c r="E21" s="8">
         <v>43495.7361111111</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>10076</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -2812,23 +2798,23 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>43461.5194444444</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>30000</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="9">
+      <c r="D22" s="10"/>
+      <c r="E22" s="8">
         <v>43497.7173611111</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>30233.09</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>233.09</v>
       </c>
@@ -2838,23 +2824,23 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>43487.5090277778</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>100000</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="9">
+      <c r="D23" s="10"/>
+      <c r="E23" s="8">
         <v>43515.5805555556</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>102781.77</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>2781.77</v>
       </c>
@@ -2864,115 +2850,172 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>43510.5138888889</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>100000</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9">
+      <c r="D24" s="10"/>
+      <c r="E24" s="8">
         <v>43528.6034722222</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <f>104079.35-104.18</f>
         <v>103975.17</v>
       </c>
-      <c r="G24" s="3">
-        <f>F24-C24</f>
-        <v>3975.17000000001</v>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>3975.17</v>
       </c>
       <c r="H24" s="5">
-        <f>G24/C24*100</f>
-        <v>3.97517000000001</v>
+        <f t="shared" si="1"/>
+        <v>3.97517</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>43515.8868055556</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>20000</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="9">
+      <c r="D25" s="10"/>
+      <c r="E25" s="8">
         <v>43528.6055555556</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>22605.22</v>
       </c>
-      <c r="G25" s="3">
-        <f>F25-C25</f>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
         <v>2605.22</v>
       </c>
       <c r="H25" s="5">
-        <f>G25/C25*100</f>
+        <f t="shared" si="1"/>
         <v>13.0261</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="19">
+    <row r="26" s="2" customFormat="1" spans="1:8">
+      <c r="A26" s="16">
         <v>43525.6097222222</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="18">
         <v>20000</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="23" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:8">
+      <c r="A27" s="16">
+        <v>43536.4395833333</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="18">
+        <v>20000</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="16">
+        <v>43538.6034722222</v>
+      </c>
+      <c r="F27" s="18">
+        <v>21561</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="16">
+        <v>43537.6527777778</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="18">
+        <v>20000</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="16">
+        <v>43557.56875</v>
+      </c>
+      <c r="F28" s="18">
+        <v>42336</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4">
+        <f>SUM(C26:C28)</f>
+        <v>60000</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4">
+        <f>SUM(F27:F28)</f>
+        <v>63897</v>
+      </c>
+      <c r="G29" s="4">
+        <f>F29-C29</f>
+        <v>3897</v>
+      </c>
+      <c r="H29" s="5">
+        <f>G29/C29*100</f>
+        <v>6.495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="6:7">
+      <c r="F31" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="24">
-        <v>22541.98</v>
-      </c>
-      <c r="G26" s="24">
-        <f>F26-C26</f>
-        <v>2541.98</v>
-      </c>
-      <c r="H26" s="25">
-        <f>G26/C26*100</f>
-        <v>12.7099</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="6:7">
-      <c r="F28" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="33">
-        <f>SUM(G2:G27)</f>
-        <v>14792.6</v>
+      <c r="G31" s="24">
+        <f>SUM(G2:G30)</f>
+        <v>16147.66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H30"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="D20:D28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/getTorrnet/hangzou.xlsx
+++ b/getTorrnet/hangzou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26670" windowHeight="10560" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gongzhi" sheetId="1" r:id="rId1"/>
@@ -15,30 +15,124 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>kongl</author>
+  </authors>
+  <commentList>
+    <comment ref="G32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>买房没钱 赎回</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
   <si>
     <t>奥点 总计</t>
   </si>
   <si>
+    <t>蔡 支付宝</t>
+  </si>
+  <si>
+    <t>蔡 支付宝转</t>
+  </si>
+  <si>
+    <t>调薪 蔡 支付宝转</t>
+  </si>
+  <si>
+    <t>李德英</t>
+  </si>
+  <si>
+    <t>李涛</t>
+  </si>
+  <si>
+    <t>现金 奖金</t>
+  </si>
+  <si>
+    <t>李涛 年终</t>
+  </si>
+  <si>
+    <t>孙慧</t>
+  </si>
+  <si>
+    <t>分红+1个月工资 现金</t>
+  </si>
+  <si>
+    <t>蒋平超</t>
+  </si>
+  <si>
+    <t>蔡</t>
+  </si>
+  <si>
+    <t>分红 蔡 微信 支付宝</t>
+  </si>
+  <si>
     <t>稳顺 总计</t>
   </si>
   <si>
+    <t>8月 提成 USDT</t>
+  </si>
+  <si>
+    <t>9月 提成 USDT</t>
+  </si>
+  <si>
+    <t>10月 提成 现金</t>
+  </si>
+  <si>
+    <t>郑 预支</t>
+  </si>
+  <si>
+    <t>李 预支</t>
+  </si>
+  <si>
+    <t>讯联云 总计</t>
+  </si>
+  <si>
+    <t>3个月房租 1个月押金</t>
+  </si>
+  <si>
+    <t>3个月房租</t>
+  </si>
+  <si>
     <t>庆隆苑 总计</t>
   </si>
   <si>
+    <t>1个月房租 1个月押金 钥匙押金</t>
+  </si>
+  <si>
     <t>宝嘉誉峰 总计</t>
   </si>
   <si>
+    <t>合计</t>
+  </si>
+  <si>
     <t>买入时间</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>金额</t>
-  </si>
-  <si>
     <t>赎回时间</t>
   </si>
   <si>
@@ -79,6 +173,12 @@
   </si>
   <si>
     <t>天宏中证计算机C</t>
+  </si>
+  <si>
+    <t>民生加银鑫享债券C</t>
+  </si>
+  <si>
+    <t>天宏中证计算机主题指数A</t>
   </si>
   <si>
     <t>合计收益</t>
@@ -89,14 +189,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +212,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -129,105 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +327,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,8 +355,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,37 +376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,13 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +436,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,19 +526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,31 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,43 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,74 +665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -651,6 +694,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -659,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,137 +782,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,13 +997,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,7 +1087,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1214,749 +1337,925 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13" style="30"/>
-    <col min="3" max="3" width="18.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.775" customWidth="1"/>
-    <col min="6" max="6" width="10.6666666666667"/>
+    <col min="1" max="1" width="13" style="32"/>
+    <col min="2" max="2" width="18.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="16.775" customWidth="1"/>
+    <col min="5" max="5" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="30">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="32">
         <v>120</v>
       </c>
-      <c r="C1" s="29">
+      <c r="B2" s="34">
         <v>42436</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="30">
+    <row r="3" spans="1:2">
+      <c r="A3" s="32">
         <v>110.48</v>
       </c>
-      <c r="C2" s="29">
+      <c r="B3" s="34">
         <v>42444</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="30">
+    <row r="4" spans="1:2">
+      <c r="A4" s="32">
         <v>2006.14</v>
       </c>
-      <c r="C3" s="29">
+      <c r="B4" s="34">
         <v>42465</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="30">
+    <row r="5" spans="1:2">
+      <c r="A5" s="32">
         <v>2320</v>
       </c>
-      <c r="C4" s="29">
+      <c r="B5" s="34">
         <v>42475</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="30">
+    <row r="6" spans="1:2">
+      <c r="A6" s="32">
         <v>3504.14</v>
       </c>
-      <c r="C5" s="29">
+      <c r="B6" s="34">
         <v>42495</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="30">
+    <row r="7" spans="1:2">
+      <c r="A7" s="32">
         <v>1625.03</v>
       </c>
-      <c r="C6" s="29">
+      <c r="B7" s="34">
         <v>42506</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="30">
+    <row r="8" spans="1:2">
+      <c r="A8" s="32">
         <v>5054.03</v>
       </c>
-      <c r="C7" s="29">
+      <c r="B8" s="34">
         <v>42527</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="30">
+    <row r="9" spans="1:2">
+      <c r="A9" s="32">
         <v>1718.25</v>
       </c>
-      <c r="C8" s="29">
+      <c r="B9" s="34">
         <v>42536</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="30">
+    <row r="10" spans="1:2">
+      <c r="A10" s="32">
         <v>4361.8</v>
       </c>
-      <c r="C9" s="29">
+      <c r="B10" s="34">
         <v>42556</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="30">
+    <row r="11" spans="1:2">
+      <c r="A11" s="32">
         <v>2014.5</v>
       </c>
-      <c r="C10" s="29">
+      <c r="B11" s="34">
         <v>42566</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="30">
+    <row r="12" spans="1:2">
+      <c r="A12" s="32">
         <v>4391.12</v>
       </c>
-      <c r="C11" s="29">
+      <c r="B12" s="34">
         <v>42587</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="30">
+    <row r="13" spans="1:2">
+      <c r="A13" s="32">
         <v>2019.6</v>
       </c>
-      <c r="C12" s="29">
+      <c r="B13" s="34">
         <v>42597</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="30">
+    <row r="14" spans="1:2">
+      <c r="A14" s="32">
         <v>4429.92</v>
       </c>
-      <c r="C13" s="29">
+      <c r="B14" s="34">
         <v>42621</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="30">
+    <row r="15" spans="1:2">
+      <c r="A15" s="32">
         <v>2014.5</v>
       </c>
-      <c r="C14" s="29">
+      <c r="B15" s="34">
         <v>42631</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="30">
+    <row r="16" spans="1:2">
+      <c r="A16" s="32">
         <v>4265.02</v>
       </c>
-      <c r="C15" s="29">
+      <c r="B16" s="34">
         <v>42651</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="30">
+    <row r="17" spans="1:2">
+      <c r="A17" s="32">
         <v>2014.5</v>
       </c>
-      <c r="C16" s="29">
+      <c r="B17" s="34">
         <v>42660</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="30">
+    <row r="18" spans="1:2">
+      <c r="A18" s="32">
         <v>4866.42</v>
       </c>
-      <c r="C17" s="29">
+      <c r="B18" s="34">
         <v>42681</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="30">
+    <row r="19" spans="1:2">
+      <c r="A19" s="32">
         <v>2014.5</v>
       </c>
-      <c r="C18" s="29">
+      <c r="B19" s="34">
         <v>42681</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="30">
+    <row r="20" spans="1:2">
+      <c r="A20" s="32">
         <v>5215.62</v>
       </c>
-      <c r="C19" s="29">
+      <c r="B20" s="34">
         <v>42709</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="30">
+    <row r="21" spans="1:2">
+      <c r="A21" s="32">
         <v>2014.5</v>
       </c>
-      <c r="C20" s="29">
+      <c r="B21" s="34">
         <v>42719</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="30">
+    <row r="22" spans="1:2">
+      <c r="A22" s="32">
         <v>5205.92</v>
       </c>
-      <c r="C21" s="29">
+      <c r="B22" s="34">
         <v>42740</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="30">
+    <row r="23" spans="1:2">
+      <c r="A23" s="32">
         <v>2016.6</v>
       </c>
-      <c r="C22" s="29">
+      <c r="B23" s="34">
         <v>42751</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="30">
+    <row r="24" spans="1:2">
+      <c r="A24" s="32">
         <v>1960</v>
       </c>
-      <c r="C23" s="29">
+      <c r="B24" s="34">
         <v>42752</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="30">
+    <row r="25" spans="1:2">
+      <c r="A25" s="32">
         <v>5147.72</v>
       </c>
-      <c r="C24" s="29">
+      <c r="B25" s="34">
         <v>42772</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="30">
+    <row r="26" spans="1:2">
+      <c r="A26" s="32">
         <v>2019.6</v>
       </c>
-      <c r="C25" s="29">
+      <c r="B26" s="34">
         <v>42781</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="30">
+    <row r="27" spans="1:2">
+      <c r="A27" s="32">
         <v>5085.64</v>
       </c>
-      <c r="C26" s="29">
+      <c r="B27" s="34">
         <v>42800</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="30">
+    <row r="28" spans="1:2">
+      <c r="A28" s="32">
         <v>2034.9</v>
       </c>
-      <c r="C27" s="29">
+      <c r="B28" s="34">
         <v>42809</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="30">
+    <row r="29" spans="1:2">
+      <c r="A29" s="32">
         <v>4904.79</v>
       </c>
-      <c r="C28" s="29">
+      <c r="B29" s="34">
         <v>42830</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="30">
+    <row r="30" spans="1:2">
+      <c r="A30" s="32">
         <v>2029.8</v>
       </c>
-      <c r="C29" s="29">
+      <c r="B30" s="34">
         <v>42842</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="30">
+    <row r="31" spans="1:2">
+      <c r="A31" s="32">
         <v>4767.48</v>
       </c>
-      <c r="C30" s="29">
+      <c r="B31" s="34">
         <v>42860</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="30">
+    <row r="32" spans="1:2">
+      <c r="A32" s="32">
         <v>2818.7</v>
       </c>
-      <c r="C31" s="29">
+      <c r="B32" s="34">
         <v>42870</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="30">
+    <row r="33" spans="1:2">
+      <c r="A33" s="32">
         <v>5079.82</v>
       </c>
-      <c r="C32" s="29">
+      <c r="B33" s="34">
         <v>42891</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="30">
+    <row r="34" spans="1:2">
+      <c r="A34" s="32">
         <v>2776.1</v>
       </c>
-      <c r="C33" s="29">
+      <c r="B34" s="34">
         <v>42901</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="30">
+    <row r="35" spans="1:2">
+      <c r="A35" s="32">
         <v>4690.07</v>
       </c>
-      <c r="C34" s="29">
+      <c r="B35" s="34">
         <v>42921</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="30">
+    <row r="36" spans="1:2">
+      <c r="A36" s="32">
         <v>2783.2</v>
       </c>
-      <c r="C35" s="29">
+      <c r="B36" s="34">
         <v>42933</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="30">
+    <row r="37" spans="1:2">
+      <c r="A37" s="32">
         <v>4372.65</v>
       </c>
-      <c r="C36" s="29">
+      <c r="B37" s="34">
         <v>43319</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="30">
+    <row r="38" spans="1:2">
+      <c r="A38" s="32">
         <v>2382.56</v>
       </c>
-      <c r="C37" s="29">
+      <c r="B38" s="34">
         <v>42962</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="30">
+    <row r="39" spans="1:2">
+      <c r="A39" s="32">
         <v>1252.18</v>
       </c>
-      <c r="C38" s="29">
+      <c r="B39" s="34">
         <v>42983</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="30">
+    <row r="40" spans="1:5">
+      <c r="A40" s="32">
         <v>656.75</v>
       </c>
-      <c r="C39" s="29">
+      <c r="B40" s="34">
         <v>42993</v>
       </c>
-      <c r="E39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f>SUM(A1:A39)</f>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="32">
+        <f>SUM(A2:A40)</f>
         <v>118064.55</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="29"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="30">
+    <row r="41" spans="2:2">
+      <c r="B41" s="34"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="32">
         <v>8914</v>
       </c>
-      <c r="C41" s="29">
+      <c r="B42" s="34">
         <v>42993</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="30">
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="32">
         <v>9000</v>
       </c>
-      <c r="C42" s="29">
+      <c r="B43" s="34">
         <v>43024</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="30">
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="32">
         <v>18000</v>
       </c>
-      <c r="C43" s="29">
+      <c r="B44" s="34">
         <v>43054</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="30">
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="32">
         <v>18000</v>
       </c>
-      <c r="C44" s="29">
+      <c r="B45" s="34">
         <v>43084</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="30">
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="32">
         <v>18000</v>
       </c>
-      <c r="C45" s="29">
+      <c r="B46" s="34">
         <v>43116</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="30">
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="32">
         <v>6000</v>
       </c>
-      <c r="C46" s="29">
+      <c r="B47" s="34">
         <v>43140</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="30">
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="32">
         <v>20000</v>
       </c>
-      <c r="C47" s="29">
+      <c r="B48" s="34">
         <v>43140</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="30">
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="32">
         <v>18000</v>
       </c>
-      <c r="C48" s="29">
+      <c r="B49" s="34">
         <v>43140</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="30">
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="32">
         <v>20000</v>
       </c>
-      <c r="C49" s="29">
+      <c r="B50" s="34">
         <v>43174</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="30">
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="32">
         <v>20000</v>
       </c>
-      <c r="C50" s="29">
+      <c r="B51" s="34">
         <v>43206</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="30">
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="32">
         <v>20000</v>
       </c>
-      <c r="C51" s="29">
+      <c r="B52" s="34">
         <v>43235</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="30">
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="32">
         <v>20000</v>
       </c>
-      <c r="C52" s="29">
+      <c r="B53" s="34">
         <v>43266</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="30">
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="32">
         <v>19834</v>
       </c>
-      <c r="C53" s="29">
+      <c r="B54" s="34">
         <v>43297</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="30">
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="32">
         <v>20000</v>
       </c>
-      <c r="C54" s="29">
+      <c r="B55" s="34">
         <v>43327</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="30">
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="32">
         <v>20011</v>
       </c>
-      <c r="C55" s="29">
+      <c r="B56" s="34">
         <v>43360</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="30">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="32">
         <v>20000</v>
       </c>
-      <c r="C56" s="29">
+      <c r="B57" s="34">
         <v>43388</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="30">
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="32">
         <v>20001</v>
       </c>
-      <c r="C57" s="29">
+      <c r="B58" s="34">
         <v>43419</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="30">
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="32">
         <v>20002</v>
       </c>
-      <c r="C58" s="29">
+      <c r="B59" s="34">
         <v>43451</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="30">
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="32">
         <v>108000</v>
       </c>
-      <c r="C59" s="29">
+      <c r="B60" s="34">
         <v>43480</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="30">
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="32">
         <v>20000</v>
       </c>
-      <c r="C60" s="29">
+      <c r="B61" s="34">
         <v>43515</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="30">
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="32">
         <v>20000</v>
       </c>
-      <c r="C61" s="29">
+      <c r="B62" s="34">
         <v>43539</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="30">
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="32">
         <v>19047</v>
       </c>
-      <c r="C62" s="29">
+      <c r="B63" s="34">
         <v>43570</v>
       </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="29"/>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="29"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="29"/>
-    </row>
-    <row r="66" spans="3:6">
-      <c r="C66" s="29"/>
-      <c r="E66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <f>SUM(A41:A62)</f>
-        <v>482809</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="29"/>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="29"/>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="29"/>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="29"/>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="29"/>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="29"/>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="29"/>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" s="29"/>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="29"/>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="29"/>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="29"/>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="29"/>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="29"/>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="29"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="29"/>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="29"/>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="29"/>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="29"/>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="29"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="29"/>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="29"/>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="29"/>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="29"/>
-    </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="29"/>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="29"/>
-    </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="29"/>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="29"/>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="29"/>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="29"/>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="29"/>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="29"/>
-    </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="29"/>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="29"/>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="29"/>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="29"/>
-    </row>
-    <row r="102" spans="3:3">
-      <c r="C102" s="29"/>
-    </row>
-    <row r="103" spans="3:3">
-      <c r="C103" s="29"/>
-    </row>
-    <row r="104" spans="3:3">
-      <c r="C104" s="29"/>
-    </row>
-    <row r="105" spans="3:3">
-      <c r="C105" s="29"/>
-    </row>
-    <row r="106" spans="3:3">
-      <c r="C106" s="29"/>
-    </row>
-    <row r="107" spans="3:3">
-      <c r="C107" s="29"/>
-    </row>
-    <row r="108" spans="3:3">
-      <c r="C108" s="29"/>
-    </row>
-    <row r="109" spans="3:3">
-      <c r="C109" s="29"/>
-    </row>
-    <row r="110" spans="3:3">
-      <c r="C110" s="29"/>
-    </row>
-    <row r="111" spans="3:3">
-      <c r="C111" s="29"/>
-    </row>
-    <row r="112" spans="3:3">
-      <c r="C112" s="29"/>
-    </row>
-    <row r="113" spans="3:3">
-      <c r="C113" s="29"/>
-    </row>
-    <row r="114" spans="3:3">
-      <c r="C114" s="29"/>
-    </row>
-    <row r="115" spans="3:3">
-      <c r="C115" s="29"/>
-    </row>
-    <row r="116" spans="3:3">
-      <c r="C116" s="29"/>
-    </row>
-    <row r="117" spans="3:3">
-      <c r="C117" s="29"/>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="29"/>
-    </row>
-    <row r="119" spans="3:3">
-      <c r="C119" s="29"/>
-    </row>
-    <row r="120" spans="3:3">
-      <c r="C120" s="29"/>
-    </row>
-    <row r="121" spans="3:3">
-      <c r="C121" s="29"/>
-    </row>
-    <row r="122" spans="3:3">
-      <c r="C122" s="29"/>
-    </row>
-    <row r="123" spans="3:3">
-      <c r="C123" s="29"/>
-    </row>
-    <row r="124" spans="3:3">
-      <c r="C124" s="29"/>
-    </row>
-    <row r="125" spans="3:3">
-      <c r="C125" s="29"/>
-    </row>
-    <row r="126" spans="3:3">
-      <c r="C126" s="29"/>
-    </row>
-    <row r="127" spans="3:3">
-      <c r="C127" s="29"/>
-    </row>
-    <row r="128" spans="3:3">
-      <c r="C128" s="29"/>
-    </row>
-    <row r="129" spans="3:3">
-      <c r="C129" s="29"/>
-    </row>
-    <row r="130" spans="3:3">
-      <c r="C130" s="29"/>
-    </row>
-    <row r="131" spans="3:3">
-      <c r="C131" s="29"/>
-    </row>
-    <row r="132" spans="3:3">
-      <c r="C132" s="29"/>
-    </row>
-    <row r="133" spans="3:3">
-      <c r="C133" s="29"/>
-    </row>
-    <row r="134" spans="3:3">
-      <c r="C134" s="29"/>
-    </row>
-    <row r="135" spans="3:3">
-      <c r="C135" s="29"/>
-    </row>
-    <row r="136" spans="3:3">
-      <c r="C136" s="29"/>
-    </row>
-    <row r="137" spans="3:3">
-      <c r="C137" s="29"/>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="32">
+        <v>18181</v>
+      </c>
+      <c r="B64" s="34">
+        <v>43600</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="32">
+        <v>20000</v>
+      </c>
+      <c r="B65" s="34">
+        <v>43633</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="32">
+        <v>20000</v>
+      </c>
+      <c r="B66" s="34">
+        <v>43661</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="32">
+        <v>20000</v>
+      </c>
+      <c r="B67" s="34">
+        <v>43690</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="32">
+        <v>18181</v>
+      </c>
+      <c r="B68" s="34">
+        <v>43724</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="32">
+        <v>93207</v>
+      </c>
+      <c r="B69" s="34">
+        <v>43806</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="34"/>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="32">
+        <f>SUM(A42:A69)</f>
+        <v>672378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="32">
+        <v>232596.9</v>
+      </c>
+      <c r="B71" s="34">
+        <v>43717</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="32">
+        <v>113489.11</v>
+      </c>
+      <c r="B72" s="34">
+        <v>43764</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="32">
+        <v>221445</v>
+      </c>
+      <c r="B73" s="34">
+        <v>43810</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="32">
+        <v>50000</v>
+      </c>
+      <c r="B74" s="34">
+        <v>43863</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="32">
+        <v>15000</v>
+      </c>
+      <c r="B75" s="34">
+        <v>43907</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="34"/>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="32">
+        <f>SUM(A71:A75)</f>
+        <v>632531.01</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="34"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="34"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="34"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="34"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="34"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="34"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="34"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="34"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="34"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="34"/>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="34"/>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="34"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="34"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="34"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="34"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="34"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="34"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="34"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="34"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="34"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="34"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="34"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="34"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="34"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="34"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="34"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="34"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="34"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="34"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="34"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="34"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="34"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="34"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="34"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="34"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="34"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="34"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="34"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="34"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="34"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="34"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="34"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="34"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="34"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="34"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="34"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="34"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="34"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="34"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="34"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="34"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="34"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="34"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="34"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="34"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="34"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="34"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="34"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="34"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="34"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="34"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1967,435 +2266,580 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="22.375" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="22.375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="29">
+    <row r="1" spans="1:3">
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="31">
         <v>42426</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="30">
         <v>5275</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="29">
+      <c r="C2" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31">
         <v>42454</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="30">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="29">
+    <row r="4" spans="1:2">
+      <c r="A4" s="31">
         <v>42469</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="30">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="29">
+    <row r="5" spans="1:2">
+      <c r="A5" s="31">
         <v>42498</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="30">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="29">
+    <row r="6" spans="1:3">
+      <c r="A6" s="31">
         <v>42507</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="30">
         <v>3975</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="29">
+      <c r="C6" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="31">
         <v>42538</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="30">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="29">
+    <row r="8" spans="1:2">
+      <c r="A8" s="31">
         <v>42559</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="30">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="29">
+    <row r="9" spans="1:2">
+      <c r="A9" s="31">
         <v>42583</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="29">
+    <row r="10" spans="1:3">
+      <c r="A10" s="31">
         <v>42606</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="30">
         <v>4300</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="29">
+      <c r="C10" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="31">
         <v>42649</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="30">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="29">
+    <row r="12" spans="1:2">
+      <c r="A12" s="31">
         <v>42676</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="30">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="29">
+    <row r="13" spans="1:2">
+      <c r="A13" s="31">
         <v>42685</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="29">
+    <row r="14" spans="1:3">
+      <c r="A14" s="31">
         <v>42719</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="30">
         <v>4238</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="29">
+      <c r="C14" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="31">
         <v>42722</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="30">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="29">
+    <row r="16" spans="1:2">
+      <c r="A16" s="31">
         <v>42753</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="30">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="29">
+    <row r="17" spans="1:3">
+      <c r="A17" s="31">
         <v>42782</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="30">
         <v>4238</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="29">
+      <c r="C17" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="31">
         <v>42797</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="30">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="29">
+    <row r="19" spans="1:2">
+      <c r="A19" s="31">
         <v>42818</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="30">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="29">
+    <row r="20" spans="1:2">
+      <c r="A20" s="31">
         <v>42863</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="30">
         <v>28.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="29">
+    <row r="21" spans="1:2">
+      <c r="A21" s="31">
         <v>42876</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="30">
         <v>1879</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="29">
+    <row r="22" spans="1:2">
+      <c r="A22" s="31">
         <v>42897</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="30">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="29">
+    <row r="23" spans="1:3">
+      <c r="A23" s="31">
         <v>42914</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="30">
         <v>4463</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="29">
+      <c r="C23" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="31">
         <v>42920</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="30">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="29">
+    <row r="25" spans="1:2">
+      <c r="A25" s="31">
         <v>42957</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="30">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="29">
+    <row r="26" spans="1:2">
+      <c r="A26" s="31">
         <v>42962</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="30">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="29">
+    <row r="27" spans="1:2">
+      <c r="A27" s="31">
         <v>42986</v>
       </c>
-      <c r="B26">
+      <c r="B27" s="30">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="29">
+    <row r="28" spans="1:3">
+      <c r="A28" s="31">
         <v>43010</v>
       </c>
-      <c r="B27">
+      <c r="B28" s="30">
         <v>4410</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="29">
+      <c r="C28" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="31">
         <v>43026</v>
       </c>
-      <c r="B28">
+      <c r="B29" s="30">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="29">
+    <row r="30" spans="1:2">
+      <c r="A30" s="31">
         <v>43050</v>
       </c>
-      <c r="B29">
+      <c r="B30" s="30">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="29">
+    <row r="31" spans="1:2">
+      <c r="A31" s="31">
         <v>43070</v>
       </c>
-      <c r="B30">
+      <c r="B31" s="30">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="29">
+    <row r="32" spans="1:2">
+      <c r="A32" s="31">
         <v>43087</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="30">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="29">
+    <row r="33" spans="1:3">
+      <c r="A33" s="31">
         <v>43099</v>
       </c>
-      <c r="B32">
+      <c r="B33" s="30">
         <v>4410</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="29">
+      <c r="C33" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="31">
         <v>43103</v>
       </c>
-      <c r="B33">
+      <c r="B34" s="30">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="29">
+    <row r="35" spans="1:2">
+      <c r="A35" s="31">
         <v>43139</v>
       </c>
-      <c r="B34">
+      <c r="B35" s="30">
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="29">
+    <row r="36" spans="1:2">
+      <c r="A36" s="31">
         <v>43173</v>
       </c>
-      <c r="B35">
+      <c r="B36" s="30">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="29">
+    <row r="37" spans="1:5">
+      <c r="A37" s="31">
         <v>43187</v>
       </c>
-      <c r="B36">
+      <c r="B37" s="30">
         <v>11</v>
       </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <f>SUM(B1:B36)</f>
+      <c r="D37" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="30">
+        <f>SUM(B2:B37)</f>
         <v>38558.5</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="29"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="29">
+    <row r="38" spans="1:1">
+      <c r="A38" s="31"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="31">
         <v>43187</v>
       </c>
-      <c r="B38">
+      <c r="B39" s="30">
         <v>3900</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="29">
+      <c r="C39" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="31">
         <v>43215</v>
       </c>
-      <c r="B39">
+      <c r="B40" s="30">
         <v>1900</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="29">
+    <row r="41" spans="1:2">
+      <c r="A41" s="31">
         <v>43246</v>
       </c>
-      <c r="B40">
+      <c r="B41" s="30">
         <v>1900</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="29">
+    <row r="42" spans="1:2">
+      <c r="A42" s="31">
         <v>43277</v>
       </c>
-      <c r="B41">
+      <c r="B42" s="30">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="29">
+    <row r="43" spans="1:2">
+      <c r="A43" s="31">
         <v>43306</v>
       </c>
-      <c r="B42">
+      <c r="B43" s="30">
         <v>2003</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="29">
+    <row r="44" spans="1:2">
+      <c r="A44" s="31">
         <v>43306</v>
       </c>
-      <c r="B43">
+      <c r="B44" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="29">
+    <row r="45" spans="1:2">
+      <c r="A45" s="31">
         <v>43339</v>
       </c>
-      <c r="B44">
+      <c r="B45" s="30">
         <v>2070</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="29">
+    <row r="46" spans="1:2">
+      <c r="A46" s="31">
         <v>43369</v>
       </c>
-      <c r="B45">
+      <c r="B46" s="30">
         <v>1973</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="29">
+    <row r="47" spans="1:2">
+      <c r="A47" s="31">
         <v>43400</v>
       </c>
-      <c r="B46">
+      <c r="B47" s="30">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="29">
+    <row r="48" spans="1:2">
+      <c r="A48" s="31">
         <v>43430</v>
       </c>
-      <c r="B47">
+      <c r="B48" s="30">
         <v>1900</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="29">
+    <row r="49" spans="1:2">
+      <c r="A49" s="31">
         <v>43460</v>
       </c>
-      <c r="B48">
+      <c r="B49" s="30">
         <v>2080</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="29">
+    <row r="50" spans="1:2">
+      <c r="A50" s="31">
         <v>43491</v>
       </c>
-      <c r="B49">
+      <c r="B50" s="30">
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="29">
+    <row r="51" spans="1:2">
+      <c r="A51" s="31">
         <v>43523</v>
       </c>
-      <c r="B50">
+      <c r="B51" s="30">
         <v>1900</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="29">
+    <row r="52" spans="1:2">
+      <c r="A52" s="31">
         <v>43552</v>
       </c>
-      <c r="B51">
+      <c r="B52" s="30">
         <v>2010</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55">
-        <f>SUM(B38:B50)</f>
-        <v>25536</v>
+    <row r="53" spans="1:2">
+      <c r="A53" s="31">
+        <v>43582</v>
+      </c>
+      <c r="B53" s="30">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="31">
+        <v>43611</v>
+      </c>
+      <c r="B54" s="30">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="31">
+        <v>43643</v>
+      </c>
+      <c r="B55" s="30">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="31">
+        <v>43674</v>
+      </c>
+      <c r="B56" s="30">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="31">
+        <v>43707</v>
+      </c>
+      <c r="B57" s="30">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="31">
+        <v>43735</v>
+      </c>
+      <c r="B58" s="30">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="31">
+        <v>43765</v>
+      </c>
+      <c r="B59" s="30">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="31">
+        <v>43797</v>
+      </c>
+      <c r="B60" s="30">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="31">
+        <v>43824</v>
+      </c>
+      <c r="B61" s="30">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="31">
+        <v>43854</v>
+      </c>
+      <c r="B62" s="30">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="31">
+        <v>43888</v>
+      </c>
+      <c r="B63" s="30">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="31">
+        <v>43915</v>
+      </c>
+      <c r="B64" s="30">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="30">
+        <f>SUM(B39:B64)</f>
+        <v>51141</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="30">
+        <f>SUM(E37:E67)</f>
+        <v>89699.5</v>
       </c>
     </row>
   </sheetData>
@@ -2407,10 +2851,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2428,25 +2872,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2454,7 +2898,7 @@
         <v>43393.4847222222</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4">
         <v>20000</v>
@@ -2466,7 +2910,7 @@
         <v>43412.86875</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4">
         <v>10000</v>
@@ -2478,7 +2922,7 @@
         <v>43412.8701388889</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
         <v>10000</v>
@@ -2490,7 +2934,7 @@
         <v>43417.5555555556</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
         <v>50011</v>
@@ -2502,7 +2946,7 @@
         <v>43424.6666666667</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>20012</v>
@@ -2520,7 +2964,7 @@
         <v>43451.4458333333</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>10000</v>
@@ -2538,7 +2982,7 @@
         <v>43451.7354166667</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4">
         <v>34000</v>
@@ -2553,7 +2997,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="4">
@@ -2562,7 +3006,7 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4">
         <f>SUM(F6:F8)</f>
@@ -2592,14 +3036,14 @@
         <v>43481.5263888889</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C11" s="18">
         <v>50000</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F11" s="18">
         <v>50799.12</v>
@@ -2622,7 +3066,7 @@
         <v>43442.2097222222</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
         <v>63432</v>
@@ -2634,7 +3078,7 @@
         <v>43469.4368055556</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4">
         <v>76070</v>
@@ -2649,7 +3093,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="4">
@@ -2658,7 +3102,7 @@
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4">
         <f>SUM(F14)</f>
@@ -2688,7 +3132,7 @@
         <v>43462.8777777778</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4">
         <v>4000</v>
@@ -2714,7 +3158,7 @@
         <v>43480.875</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4">
         <v>50000</v>
@@ -2750,7 +3194,7 @@
         <v>43447.5159722222</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4">
         <v>40000</v>
@@ -2776,7 +3220,7 @@
         <v>43461.5159722222</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C21" s="4">
         <v>10000</v>
@@ -2802,7 +3246,7 @@
         <v>43461.5194444444</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4">
         <v>30000</v>
@@ -2828,7 +3272,7 @@
         <v>43487.5090277778</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4">
         <v>100000</v>
@@ -2854,7 +3298,7 @@
         <v>43510.5138888889</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4">
         <v>100000</v>
@@ -2881,7 +3325,7 @@
         <v>43515.8868055556</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4">
         <v>20000</v>
@@ -2907,7 +3351,7 @@
         <v>43525.6097222222</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C26" s="18">
         <v>20000</v>
@@ -2923,7 +3367,7 @@
         <v>43536.4395833333</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C27" s="18">
         <v>20000</v>
@@ -2943,7 +3387,7 @@
         <v>43537.6527777778</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C28" s="18">
         <v>20000</v>
@@ -2953,14 +3397,14 @@
         <v>43557.56875</v>
       </c>
       <c r="F28" s="18">
-        <v>42336</v>
+        <v>42336.09</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="20"/>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="4">
@@ -2969,22 +3413,22 @@
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F29" s="4">
         <f>SUM(F27:F28)</f>
-        <v>63897</v>
+        <v>63897.09</v>
       </c>
       <c r="G29" s="4">
         <f>F29-C29</f>
-        <v>3897</v>
+        <v>3897.09</v>
       </c>
       <c r="H29" s="5">
         <f>G29/C29*100</f>
-        <v>6.495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>6.49514999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="14"/>
@@ -2992,26 +3436,86 @@
       <c r="E30" s="27"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="6:7">
-      <c r="F31" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="24">
-        <f>SUM(G2:G30)</f>
-        <v>16147.66</v>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8">
+        <v>43718.4798611111</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="8">
+        <v>43754.3993055556</v>
+      </c>
+      <c r="F31" s="4">
+        <v>50083.21</v>
+      </c>
+      <c r="G31" s="4">
+        <f>F31-C31</f>
+        <v>83.2099999999991</v>
+      </c>
+      <c r="H31" s="5">
+        <f>G31/C31*100</f>
+        <v>0.166419999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8">
+        <v>43723.6291666667</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="8">
+        <v>43803.5798611111</v>
+      </c>
+      <c r="F32" s="4">
+        <v>18075.65</v>
+      </c>
+      <c r="G32" s="28">
+        <f>F32-C32</f>
+        <v>-1924.35</v>
+      </c>
+      <c r="H32" s="29">
+        <f>G32/C32*100</f>
+        <v>-9.62174999999999</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:8">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="24">
+        <f>SUM(G2:G33)</f>
+        <v>14306.61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H30"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="D17:D18"/>
@@ -3019,5 +3523,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/getTorrnet/hangzou.xlsx
+++ b/getTorrnet/hangzou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="gongzhi" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>金额</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>李 预支</t>
+  </si>
+  <si>
+    <t>11 12  1 2 合计</t>
   </si>
   <si>
     <t>讯联云 总计</t>
@@ -189,12 +192,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -212,9 +215,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +246,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,18 +261,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,8 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,28 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +316,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,25 +338,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +385,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +433,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,19 +505,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,139 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,41 +668,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,17 +710,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,16 +728,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,10 +773,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,133 +785,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E76"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2058,10 +2061,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="1:5">
+      <c r="A76" s="32">
+        <v>28300</v>
+      </c>
       <c r="B76" s="34"/>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E76" s="32">
         <f>SUM(A71:A75)</f>
@@ -2101,7 +2110,7 @@
     <row r="87" spans="2:4">
       <c r="B87" s="34"/>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="2:2">
@@ -2268,7 +2277,7 @@
   <sheetPr/>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -2299,7 +2308,7 @@
         <v>5275</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2334,7 +2343,7 @@
         <v>3975</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2369,7 +2378,7 @@
         <v>4300</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2404,7 +2413,7 @@
         <v>4238</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2431,7 +2440,7 @@
         <v>4238</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2482,7 +2491,7 @@
         <v>4463</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2525,7 +2534,7 @@
         <v>4410</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2568,7 +2577,7 @@
         <v>4410</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2603,7 +2612,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37" s="30">
         <f>SUM(B2:B37)</f>
@@ -2621,7 +2630,7 @@
         <v>3900</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2826,7 +2835,7 @@
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E67" s="30">
         <f>SUM(B39:B64)</f>
@@ -2835,7 +2844,7 @@
     </row>
     <row r="68" spans="4:5">
       <c r="D68" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E68" s="30">
         <f>SUM(E37:E67)</f>
@@ -2872,25 +2881,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2898,7 +2907,7 @@
         <v>43393.4847222222</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4">
         <v>20000</v>
@@ -2910,7 +2919,7 @@
         <v>43412.86875</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4">
         <v>10000</v>
@@ -2922,7 +2931,7 @@
         <v>43412.8701388889</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4">
         <v>10000</v>
@@ -2934,7 +2943,7 @@
         <v>43417.5555555556</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4">
         <v>50011</v>
@@ -2946,7 +2955,7 @@
         <v>43424.6666666667</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4">
         <v>20012</v>
@@ -2964,7 +2973,7 @@
         <v>43451.4458333333</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4">
         <v>10000</v>
@@ -2982,7 +2991,7 @@
         <v>43451.7354166667</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4">
         <v>34000</v>
@@ -2997,7 +3006,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="4">
@@ -3006,7 +3015,7 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4">
         <f>SUM(F6:F8)</f>
@@ -3036,14 +3045,14 @@
         <v>43481.5263888889</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="18">
         <v>50000</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="18">
         <v>50799.12</v>
@@ -3066,7 +3075,7 @@
         <v>43442.2097222222</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4">
         <v>63432</v>
@@ -3078,7 +3087,7 @@
         <v>43469.4368055556</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4">
         <v>76070</v>
@@ -3093,7 +3102,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="4">
@@ -3102,7 +3111,7 @@
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4">
         <f>SUM(F14)</f>
@@ -3132,7 +3141,7 @@
         <v>43462.8777777778</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4">
         <v>4000</v>
@@ -3158,7 +3167,7 @@
         <v>43480.875</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4">
         <v>50000</v>
@@ -3194,7 +3203,7 @@
         <v>43447.5159722222</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4">
         <v>40000</v>
@@ -3220,7 +3229,7 @@
         <v>43461.5159722222</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="4">
         <v>10000</v>
@@ -3246,7 +3255,7 @@
         <v>43461.5194444444</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4">
         <v>30000</v>
@@ -3272,7 +3281,7 @@
         <v>43487.5090277778</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4">
         <v>100000</v>
@@ -3298,7 +3307,7 @@
         <v>43510.5138888889</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4">
         <v>100000</v>
@@ -3325,7 +3334,7 @@
         <v>43515.8868055556</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="4">
         <v>20000</v>
@@ -3351,7 +3360,7 @@
         <v>43525.6097222222</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="18">
         <v>20000</v>
@@ -3367,7 +3376,7 @@
         <v>43536.4395833333</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="18">
         <v>20000</v>
@@ -3387,7 +3396,7 @@
         <v>43537.6527777778</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="18">
         <v>20000</v>
@@ -3404,7 +3413,7 @@
     </row>
     <row r="29" s="2" customFormat="1" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="4">
@@ -3413,7 +3422,7 @@
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" s="4">
         <f>SUM(F27:F28)</f>
@@ -3442,7 +3451,7 @@
         <v>43718.4798611111</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="4">
         <v>50000</v>
@@ -3468,7 +3477,7 @@
         <v>43723.6291666667</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="4">
         <v>20000</v>
@@ -3501,7 +3510,7 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34" s="24">
         <f>SUM(G2:G33)</f>
